--- a/gameTb/client/table/帐号配置.xlsx
+++ b/gameTb/client/table/帐号配置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>int32_t</t>
   </si>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色所在的服务器ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行创建角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,16 @@
   </si>
   <si>
     <t>帐号是否有角色</t>
+  </si>
+  <si>
+    <t>进入游戏界面数据</t>
+  </si>
+  <si>
+    <t>进入游戏界面数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销帐号</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -637,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -654,11 +660,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -777,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -794,13 +800,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +916,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -953,7 +975,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <v>41</v>
@@ -961,7 +983,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>60</v>

--- a/gameTb/client/table/帐号配置.xlsx
+++ b/gameTb/client/table/帐号配置.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>int32_t</t>
   </si>
@@ -231,6 +231,20 @@
   </si>
   <si>
     <t>注销帐号</t>
+  </si>
+  <si>
+    <t>获取帐号Id</t>
+  </si>
+  <si>
+    <t>获取帐号Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置选择的服务器Id</t>
+  </si>
+  <si>
+    <t>设置选择的服务器Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -660,11 +674,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -823,6 +837,25 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -913,10 +946,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -989,6 +1022,22 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameTb/client/table/帐号配置.xlsx
+++ b/gameTb/client/table/帐号配置.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>int32_t</t>
   </si>
@@ -245,6 +245,9 @@
   <si>
     <t>设置选择的服务器Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行创建角色</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -856,6 +859,20 @@
       </c>
       <c r="C9" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/帐号配置.xlsx
+++ b/gameTb/client/table/帐号配置.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>int32_t</t>
   </si>
@@ -248,6 +248,13 @@
   </si>
   <si>
     <t>执行创建角色</t>
+  </si>
+  <si>
+    <t>获取服务器Id</t>
+  </si>
+  <si>
+    <t>获取服务器Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,11 +684,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -873,6 +880,14 @@
       </c>
       <c r="D10" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +978,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1055,6 +1070,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameTb/client/table/帐号配置.xlsx
+++ b/gameTb/client/table/帐号配置.xlsx
@@ -233,27 +233,27 @@
     <t>注销帐号</t>
   </si>
   <si>
-    <t>获取帐号Id</t>
-  </si>
-  <si>
-    <t>获取帐号Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置选择的服务器Id</t>
-  </si>
-  <si>
-    <t>设置选择的服务器Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行创建角色</t>
   </si>
   <si>
-    <t>获取服务器Id</t>
-  </si>
-  <si>
-    <t>获取服务器Id</t>
+    <t>获取帐号编号</t>
+  </si>
+  <si>
+    <t>获取帐号编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置选择的服务器编号</t>
+  </si>
+  <si>
+    <t>设置选择的服务器编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器编号</t>
+  </si>
+  <si>
+    <t>获取服务器编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -688,13 +688,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -944,7 +944,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -958,7 +958,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -966,7 +966,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -981,12 +981,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1027,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1035,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1043,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1051,23 +1051,23 @@
         <v>45</v>
       </c>
       <c r="B8" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1075,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="2">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
